--- a/testData/elementDate.xlsx
+++ b/testData/elementDate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="2" r:id="rId1"/>
@@ -2313,6 +2313,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2524,6 +2525,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2538,12 +2545,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2855,7 +2856,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2872,7 +2873,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
@@ -2887,7 +2888,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
@@ -2902,7 +2903,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
@@ -2917,7 +2918,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="28" t="s">
         <v>20</v>
       </c>
@@ -2932,7 +2933,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>449</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -2949,7 +2950,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="28" t="s">
         <v>26</v>
       </c>
@@ -2964,7 +2965,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="28" t="s">
         <v>29</v>
       </c>
@@ -2979,7 +2980,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="28" t="s">
         <v>31</v>
       </c>
@@ -2994,7 +2995,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="28" t="s">
         <v>34</v>
       </c>
@@ -3009,7 +3010,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="28" t="s">
         <v>37</v>
       </c>
@@ -3024,7 +3025,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="28" t="s">
         <v>40</v>
       </c>
@@ -3039,7 +3040,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="28" t="s">
         <v>43</v>
       </c>
@@ -3054,7 +3055,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="28" t="s">
         <v>45</v>
       </c>
@@ -3069,7 +3070,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="28" t="s">
         <v>48</v>
       </c>
@@ -3084,7 +3085,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="28" t="s">
         <v>51</v>
       </c>
@@ -3099,7 +3100,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="28" t="s">
         <v>54</v>
       </c>
@@ -3114,7 +3115,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="28" t="s">
         <v>57</v>
       </c>
@@ -3129,7 +3130,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="28" t="s">
         <v>60</v>
       </c>
@@ -3144,7 +3145,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="28" t="s">
         <v>63</v>
       </c>
@@ -3159,7 +3160,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="28" t="s">
         <v>66</v>
       </c>
@@ -3174,7 +3175,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="47" t="s">
         <v>448</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -3191,7 +3192,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="28" t="s">
         <v>72</v>
       </c>
@@ -3206,7 +3207,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="28" t="s">
         <v>74</v>
       </c>
@@ -3221,7 +3222,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="28" t="s">
         <v>77</v>
       </c>
@@ -3236,7 +3237,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="28" t="s">
         <v>80</v>
       </c>
@@ -3251,7 +3252,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="28" t="s">
         <v>83</v>
       </c>
@@ -3266,7 +3267,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="28" t="s">
         <v>85</v>
       </c>
@@ -3281,7 +3282,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="28" t="s">
         <v>87</v>
       </c>
@@ -3296,7 +3297,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="28" t="s">
         <v>89</v>
       </c>
@@ -3311,7 +3312,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="28" t="s">
         <v>91</v>
       </c>
@@ -3326,7 +3327,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="28" t="s">
         <v>93</v>
       </c>
@@ -3341,7 +3342,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="44" t="s">
         <v>478</v>
       </c>
       <c r="B34" s="28" t="s">
@@ -3359,7 +3360,7 @@
       <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="28" t="s">
         <v>96</v>
       </c>
@@ -3374,7 +3375,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="28" t="s">
         <v>98</v>
       </c>
@@ -3392,7 +3393,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="28" t="s">
         <v>99</v>
       </c>
@@ -3407,7 +3408,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="28" t="s">
         <v>102</v>
       </c>
@@ -3422,7 +3423,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="31" t="s">
         <v>103</v>
       </c>
@@ -3437,7 +3438,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="31" t="s">
         <v>106</v>
       </c>
@@ -3452,7 +3453,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="31" t="s">
         <v>108</v>
       </c>
@@ -3467,7 +3468,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="31" t="s">
         <v>111</v>
       </c>
@@ -3482,7 +3483,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="31" t="s">
         <v>114</v>
       </c>
@@ -3497,7 +3498,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="31" t="s">
         <v>116</v>
       </c>
@@ -3512,7 +3513,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="31" t="s">
         <v>119</v>
       </c>
@@ -3527,7 +3528,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="31" t="s">
         <v>472</v>
       </c>
@@ -3542,7 +3543,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="31" t="s">
         <v>122</v>
       </c>
@@ -3557,7 +3558,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="31" t="s">
         <v>125</v>
       </c>
@@ -3572,7 +3573,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="31" t="s">
         <v>462</v>
       </c>
@@ -3587,7 +3588,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="31" t="s">
         <v>473</v>
       </c>
@@ -3605,7 +3606,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="31" t="s">
         <v>461</v>
       </c>
@@ -3623,7 +3624,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="28" t="s">
         <v>466</v>
       </c>
@@ -3638,7 +3639,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="28" t="s">
         <v>468</v>
       </c>
@@ -3653,7 +3654,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="28" t="s">
         <v>98</v>
       </c>
@@ -3668,7 +3669,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="43" t="s">
         <v>486</v>
       </c>
       <c r="B55" s="31" t="s">
@@ -3686,7 +3687,7 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="31" t="s">
         <v>405</v>
       </c>
@@ -3702,7 +3703,7 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="31" t="s">
         <v>406</v>
       </c>
@@ -3718,7 +3719,7 @@
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="31" t="s">
         <v>407</v>
       </c>
@@ -3734,7 +3735,7 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="31" t="s">
         <v>411</v>
       </c>
@@ -3750,7 +3751,7 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="39" t="s">
         <v>408</v>
       </c>
@@ -3765,7 +3766,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="31" t="s">
         <v>409</v>
       </c>
@@ -3780,7 +3781,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="31" t="s">
         <v>412</v>
       </c>
@@ -3795,7 +3796,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="31" t="s">
         <v>416</v>
       </c>
@@ -3810,7 +3811,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="43" t="s">
         <v>498</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -3830,7 +3831,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="31" t="s">
         <v>431</v>
       </c>
@@ -3845,7 +3846,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="31" t="s">
         <v>432</v>
       </c>
@@ -3860,7 +3861,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="31" t="s">
         <v>428</v>
       </c>
@@ -3875,7 +3876,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="31" t="s">
         <v>435</v>
       </c>
@@ -3890,7 +3891,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="31" t="s">
         <v>436</v>
       </c>
@@ -3905,7 +3906,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="31" t="s">
         <v>555</v>
       </c>
@@ -3920,7 +3921,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="31" t="s">
         <v>556</v>
       </c>
@@ -3935,7 +3936,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="43" t="s">
         <v>501</v>
       </c>
       <c r="B72" s="31" t="s">
@@ -3952,7 +3953,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="31" t="s">
         <v>424</v>
       </c>
@@ -3967,7 +3968,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="31" t="s">
         <v>428</v>
       </c>
@@ -3982,7 +3983,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="31" t="s">
         <v>435</v>
       </c>
@@ -3995,7 +3996,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="A76" s="44"/>
       <c r="B76" s="31" t="s">
         <v>436</v>
       </c>
@@ -4008,7 +4009,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="31" t="s">
         <v>494</v>
       </c>
@@ -4021,7 +4022,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="44"/>
       <c r="B78" s="31" t="s">
         <v>493</v>
       </c>
@@ -4034,7 +4035,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="44" t="s">
         <v>523</v>
       </c>
       <c r="B79" s="31" t="s">
@@ -4051,7 +4052,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="31" t="s">
         <v>525</v>
       </c>
@@ -4066,7 +4067,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="44"/>
       <c r="B81" s="31" t="s">
         <v>528</v>
       </c>
@@ -4081,7 +4082,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="44"/>
       <c r="B82" s="31" t="s">
         <v>532</v>
       </c>
@@ -4099,7 +4100,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="31" t="s">
         <v>513</v>
       </c>
@@ -4117,7 +4118,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="31" t="s">
         <v>520</v>
       </c>
@@ -4132,7 +4133,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="43" t="s">
         <v>543</v>
       </c>
       <c r="B85" s="31" t="s">
@@ -4149,7 +4150,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="44"/>
       <c r="B86" s="31" t="s">
         <v>526</v>
       </c>
@@ -4164,7 +4165,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="44"/>
       <c r="B87" s="31" t="s">
         <v>529</v>
       </c>
@@ -4179,7 +4180,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="44"/>
       <c r="B88" s="31" t="s">
         <v>533</v>
       </c>
@@ -4194,7 +4195,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="31" t="s">
         <v>534</v>
       </c>
@@ -4209,7 +4210,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
+      <c r="A90" s="44"/>
       <c r="B90" s="31" t="s">
         <v>541</v>
       </c>
@@ -4347,7 +4348,7 @@
       <c r="A99" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="41" t="s">
         <v>545</v>
       </c>
       <c r="C99" s="26" t="s">
@@ -4657,9 +4658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5861,7 +5862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5887,7 +5888,7 @@
       <c r="D1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="42" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6133,9 +6134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/testData/elementDate.xlsx
+++ b/testData/elementDate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="600">
   <si>
     <t>模块</t>
   </si>
@@ -448,9 +448,6 @@
     <t>teaNoticeEle</t>
   </si>
   <si>
-    <t>//*[@id="content"]/div[2]/div[2]/div[2]/a</t>
-  </si>
-  <si>
     <t>教师公告按钮</t>
   </si>
   <si>
@@ -1630,26 +1627,14 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="Stree_3_check"]</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="SReviewAndConfirm"]</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="content"]/div[2]/div[4]/a</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>noticeEle</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="Ttree_3_check"]</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>sendNoticeEle</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1671,10 +1656,6 @@
   </si>
   <si>
     <t>cancelSendStuNoticeEle</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="content"]/div[2]/div[4]/a</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1845,10 +1826,6 @@
   <si>
     <t>courseTableEle</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>searchCourseTest-01</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>courseNameKeyword</t>
@@ -2190,6 +2167,46 @@
   <si>
     <t>002022-06-01T15:30</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCourseTest-01</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="Stree_1_check"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div[2]/div[2]/div[4]/a</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div[2]/div[2]/div[2]/a</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="SReviewAndConfirm"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题不可以超过15个字</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>createNoticeTest-03</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="Ttree_4_check"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="content"]/div[2]/div[2]/div[3]/a</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2824,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2951,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>23</v>
@@ -3048,7 +3065,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>44</v>
@@ -3176,7 +3193,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>69</v>
@@ -3343,10 +3360,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>14</v>
@@ -3355,7 +3372,7 @@
         <v>95</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F34" s="33"/>
     </row>
@@ -3371,7 +3388,7 @@
         <v>97</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,13 +3400,13 @@
         <v>14</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>475</v>
+        <v>592</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3401,16 +3418,16 @@
         <v>14</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>14</v>
@@ -3419,238 +3436,241 @@
         <v>21</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="32" t="s">
+      <c r="E39" s="31" t="s">
         <v>104</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>107</v>
-      </c>
       <c r="E40" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
       <c r="B41" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="32" t="s">
+      <c r="E41" s="31" t="s">
         <v>109</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
       <c r="B42" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>112</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>115</v>
-      </c>
       <c r="E43" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="32" t="s">
+      <c r="E44" s="31" t="s">
         <v>117</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="44"/>
       <c r="B45" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="32" t="s">
+      <c r="E45" s="31" t="s">
         <v>120</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
       <c r="B46" s="31" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>467</v>
+        <v>598</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
       <c r="B47" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="32" t="s">
+      <c r="E47" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="44"/>
       <c r="B48" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>126</v>
-      </c>
       <c r="E48" s="31" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
       <c r="B49" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>463</v>
+        <v>591</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
       <c r="B50" s="31" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>129</v>
-      </c>
       <c r="F50" s="31" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
       <c r="B51" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E51" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>471</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
       <c r="B52" s="28" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
       <c r="B53" s="28" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3662,775 +3682,775 @@
         <v>14</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>465</v>
+        <v>599</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44"/>
       <c r="B56" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="44"/>
       <c r="B57" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
       <c r="B58" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="44"/>
       <c r="B59" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="44"/>
       <c r="B60" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="44"/>
       <c r="B61" s="31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
       <c r="B62" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
       <c r="B63" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>414</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
       <c r="B65" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="E66" s="31" t="s">
         <v>425</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
       <c r="B69" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="E69" s="31" t="s">
         <v>433</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="31" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="31" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
       <c r="B73" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="44"/>
       <c r="B74" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="44"/>
       <c r="B75" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="32"/>
       <c r="E75" s="31" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="44"/>
       <c r="B76" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="32"/>
       <c r="E76" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="31" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="32"/>
       <c r="E77" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="31" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="44"/>
       <c r="B80" s="31" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
       <c r="B81" s="31" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="44"/>
       <c r="B82" s="31" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
       <c r="B83" s="31" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="44"/>
       <c r="B84" s="31" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
       <c r="B86" s="31" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="44"/>
       <c r="B87" s="31" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="44"/>
       <c r="B88" s="31" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="44"/>
       <c r="B89" s="31" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="44"/>
       <c r="B90" s="31" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="31" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="31" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="31" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="31" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="31" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="31" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="31" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="31" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="33" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="33" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" s="33" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" s="33" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="31" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="E104" s="34" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4485,166 +4505,166 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>149</v>
-      </c>
       <c r="D3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="D4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>158</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="C7" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4681,10 +4701,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>31</v>
@@ -4708,54 +4728,54 @@
         <v>48</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>33</v>
@@ -4765,1038 +4785,1038 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>190</v>
-      </c>
       <c r="D5" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="I5" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M5" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="H6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M6" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="C7" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="I7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="H8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M8" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="E9" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="I9" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M9" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="E10" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="J10" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="K10" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M10" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>211</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>212</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>217</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="I13" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>220</v>
-      </c>
       <c r="C14" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="I14" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>175</v>
-      </c>
       <c r="J14" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="K15" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>173</v>
-      </c>
       <c r="L15" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="K16" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="L16" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>227</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="K17" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="L17" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="K18" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="L18" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="K19" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>173</v>
-      </c>
       <c r="L19" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>240</v>
-      </c>
       <c r="C20" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="I20" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="J20" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="C21" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="K21" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M21" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>245</v>
-      </c>
       <c r="C22" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H22" s="17" t="s">
+      <c r="I22" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="K22" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="L22" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M22" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>247</v>
-      </c>
       <c r="C23" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="I23" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="J23" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="K23" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="M23" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="N23" s="20"/>
       <c r="O23" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="C24" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="M24" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N24" s="19"/>
       <c r="O24" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="L25" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="M25" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>255</v>
       </c>
       <c r="N25" s="20"/>
       <c r="O25" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="C26" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E26" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="G26" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="I26" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>176</v>
-      </c>
       <c r="K26" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -5815,7 +5835,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5829,27 +5849,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5877,70 +5897,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>595</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -5954,7 +5974,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5970,31 +5990,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>33</v>
@@ -6002,126 +6022,126 @@
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>267</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>270</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>273</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>275</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6134,9 +6154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6157,61 +6177,61 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H2" s="4">
         <v>20</v>
@@ -6220,36 +6240,36 @@
         <v>2</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H3" s="4">
         <v>20</v>
@@ -6258,36 +6278,36 @@
         <v>2</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>307</v>
-      </c>
       <c r="D4" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H4" s="4">
         <v>20</v>
@@ -6296,36 +6316,36 @@
         <v>2</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>310</v>
-      </c>
       <c r="D5" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H5" s="4">
         <v>20</v>
@@ -6334,36 +6354,36 @@
         <v>2</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K5" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>313</v>
-      </c>
       <c r="D6" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
@@ -6372,34 +6392,34 @@
         <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H7" s="4">
         <v>20</v>
@@ -6408,36 +6428,36 @@
         <v>2</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K7" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>321</v>
-      </c>
       <c r="E8" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H8" s="4">
         <v>20</v>
@@ -6446,36 +6466,36 @@
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K8" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>324</v>
-      </c>
       <c r="E9" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H9" s="4">
         <v>20</v>
@@ -6484,36 +6504,36 @@
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>327</v>
-      </c>
       <c r="E10" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H10" s="4">
         <v>20</v>
@@ -6522,36 +6542,36 @@
         <v>2</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K10" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="E11" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H11" s="4">
         <v>20</v>
@@ -6560,72 +6580,72 @@
         <v>2</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4">
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -6634,36 +6654,36 @@
         <v>2</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="4">
         <v>300</v>
@@ -6672,36 +6692,36 @@
         <v>2</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H15" s="4">
         <v>301</v>
@@ -6710,36 +6730,36 @@
         <v>2</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H16" s="4">
         <v>-1</v>
@@ -6748,36 +6768,36 @@
         <v>2</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H17" s="4">
         <v>150</v>
@@ -6786,72 +6806,72 @@
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="C18" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H18" s="4">
         <v>20</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K18" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="C19" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H19" s="4">
         <v>20</v>
@@ -6860,36 +6880,36 @@
         <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H20" s="4">
         <v>20</v>
@@ -6898,36 +6918,36 @@
         <v>0.1</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H21" s="4">
         <v>20</v>
@@ -6936,36 +6956,36 @@
         <v>-1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="C22" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H22" s="4">
         <v>20</v>
@@ -6974,36 +6994,36 @@
         <v>10</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="C23" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H23" s="4">
         <v>20</v>
@@ -7012,36 +7032,36 @@
         <v>11</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="C24" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H24" s="4">
         <v>20</v>
@@ -7050,36 +7070,36 @@
         <v>5</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="C25" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H25" s="4">
         <v>20</v>
@@ -7089,33 +7109,33 @@
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H26" s="4">
         <v>20</v>
@@ -7124,36 +7144,36 @@
         <v>2</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="C27" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H27" s="4">
         <v>20</v>
@@ -7162,36 +7182,36 @@
         <v>2</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="C28" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H28" s="4">
         <v>20</v>
@@ -7200,36 +7220,36 @@
         <v>2</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="C29" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>297</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H29" s="4">
         <v>20</v>
@@ -7238,13 +7258,13 @@
         <v>2</v>
       </c>
       <c r="J29" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>381</v>
-      </c>
       <c r="L29" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -7269,7 +7289,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7284,195 +7304,195 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>265</v>
+        <v>596</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>310</v>
+        <v>597</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>386</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="207" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="193.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="E10" s="38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="E11" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
@@ -7502,50 +7522,50 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/testData/elementDate.xlsx
+++ b/testData/elementDate.xlsx
@@ -21,13 +21,14 @@
     <sheet name="createActionData" sheetId="6" r:id="rId7"/>
     <sheet name="sendNoticeData" sheetId="8" r:id="rId8"/>
     <sheet name="uploadFileData" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="646">
   <si>
     <t>模块</t>
   </si>
@@ -1527,14 +1528,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="tree_3_span"]</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\学习\毕设\测试毕设\文件\导入用户模板.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>uploadUserFile</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1544,10 +1537,6 @@
   </si>
   <si>
     <t>expected</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传excel格式文档</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -2129,10 +2118,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>002022-05-01T15:30</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>起始时间不可晚于结束时间!!!</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2206,6 +2191,520 @@
   </si>
   <si>
     <t>//*[@id="content"]/div[2]/div[2]/div[3]/a</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadFileTest-01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传Excel文件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击录入</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>请使用Excel文件</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Software\PycharmProjects\sccProjects\testData\导入用户模板.xlsx</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Software\PycharmProjects\sccProjects\testData\testJpg.jpg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testMp4.mp4</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testPDF.pdf</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testPng.png</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testPPT.pptx</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testRAR.rar</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testtxt.txt</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testWord.doc</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testword.docx</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D:\Software\PycharmProjects\sccProjects\testData\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>testZip.zip</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传excel格式文档</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传excel格式文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传excel格式文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadFileTest-02</t>
+  </si>
+  <si>
+    <t>uploadFileTest-03</t>
+  </si>
+  <si>
+    <t>uploadFileTest-04</t>
+  </si>
+  <si>
+    <t>uploadFileTest-05</t>
+  </si>
+  <si>
+    <t>uploadFileTest-06</t>
+  </si>
+  <si>
+    <t>uploadFileTest-07</t>
+  </si>
+  <si>
+    <t>uploadFileTest-08</t>
+  </si>
+  <si>
+    <t>uploadFileTest-09</t>
+  </si>
+  <si>
+    <t>uploadFileTest-10</t>
+  </si>
+  <si>
+    <t>uploadFileTest-11</t>
+  </si>
+  <si>
+    <r>
+      <t>上传j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ocx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传zip文件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="tree_4_span"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生管理模块</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>17届</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2班</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="tree_21_switch"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="tree_22_switch"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="tree_24_span"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="uploadUserBtn"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadUserFile</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="exportBtn"]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="inputUserTemplate"]</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2213,7 +2712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2331,6 +2830,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2841,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2951,7 +3456,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>23</v>
@@ -3065,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>44</v>
@@ -3193,7 +3698,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>69</v>
@@ -3360,10 +3865,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>14</v>
@@ -3372,7 +3877,7 @@
         <v>95</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F34" s="33"/>
     </row>
@@ -3388,7 +3893,7 @@
         <v>97</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,13 +3905,13 @@
         <v>14</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3418,7 +3923,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>100</v>
@@ -3436,7 +3941,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,7 +3971,7 @@
         <v>106</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3511,7 +4016,7 @@
         <v>114</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3547,16 +4052,16 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
       <c r="B46" s="31" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3586,19 +4091,19 @@
         <v>125</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="44"/>
       <c r="B49" s="31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>126</v>
@@ -3607,7 +4112,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
       <c r="B50" s="31" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>14</v>
@@ -3619,58 +4124,58 @@
         <v>128</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
       <c r="B51" s="31" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
       <c r="B52" s="28" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="E52" s="31" t="s">
         <v>449</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="44"/>
       <c r="B53" s="28" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3682,15 +4187,15 @@
         <v>14</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>403</v>
@@ -3699,10 +4204,10 @@
         <v>14</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -3715,10 +4220,10 @@
         <v>14</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -3731,10 +4236,10 @@
         <v>14</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -3750,7 +4255,7 @@
         <v>428</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -3766,7 +4271,7 @@
         <v>416</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -3782,7 +4287,7 @@
         <v>409</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3797,7 +4302,7 @@
         <v>412</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,7 +4317,7 @@
         <v>417</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3832,7 +4337,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>429</v>
@@ -3847,7 +4352,7 @@
         <v>420</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,7 +4367,7 @@
         <v>422</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,7 +4394,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>437</v>
+        <v>634</v>
       </c>
       <c r="E67" s="31" t="s">
         <v>426</v>
@@ -3901,13 +4406,13 @@
         <v>434</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3928,36 +4433,36 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="31" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="31" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>419</v>
@@ -3966,7 +4471,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>421</v>
@@ -3981,10 +4486,10 @@
         <v>14</v>
       </c>
       <c r="D73" s="32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3996,7 +4501,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E74" s="31" t="s">
         <v>426</v>
@@ -4008,11 +4513,13 @@
         <v>434</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="32"/>
+        <v>487</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>643</v>
+      </c>
       <c r="E75" s="31" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,7 +4530,9 @@
       <c r="C76" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="32"/>
+      <c r="D76" s="32" t="s">
+        <v>642</v>
+      </c>
       <c r="E76" s="31" t="s">
         <v>433</v>
       </c>
@@ -4031,351 +4540,355 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="31" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="32"/>
+      <c r="D77" s="32" t="s">
+        <v>644</v>
+      </c>
       <c r="E77" s="31" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="44"/>
       <c r="B78" s="31" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="32"/>
+      <c r="D78" s="32" t="s">
+        <v>645</v>
+      </c>
       <c r="E78" s="31" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="44"/>
       <c r="B80" s="31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="44"/>
       <c r="B81" s="31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="44"/>
       <c r="B82" s="31" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
       <c r="B83" s="31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="44"/>
       <c r="B84" s="31" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
       <c r="B86" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="44"/>
       <c r="B87" s="31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="32" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="44"/>
       <c r="B88" s="31" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="44"/>
       <c r="B89" s="31" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="44"/>
       <c r="B90" s="31" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C90" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="31" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="32" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="31" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="32" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="31" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="31" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="32" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="31" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="32" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="31" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="31" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="31" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>129</v>
@@ -4383,13 +4896,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="33" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>130</v>
@@ -4398,22 +4911,22 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="33" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>14</v>
@@ -4427,7 +4940,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" s="33" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>14</v>
@@ -4441,7 +4954,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>14</v>
@@ -4454,18 +4967,39 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>635</v>
+      </c>
       <c r="C105" s="26" t="s">
         <v>14</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" s="26" t="s">
         <v>14</v>
       </c>
+      <c r="D106" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="E106" s="34" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" s="26" t="s">
         <v>14</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -4483,6 +5017,35 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5855,7 +6418,7 @@
         <v>138</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>11</v>
@@ -5866,10 +6429,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -5903,64 +6466,64 @@
         <v>138</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>288</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>587</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -7353,13 +7916,13 @@
     </row>
     <row r="4" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>386</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>382</v>
@@ -7382,7 +7945,7 @@
         <v>382</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
@@ -7506,70 +8069,191 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="54.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+      <c r="D1" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" t="s">
         <v>438</v>
       </c>
-      <c r="E2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>299</v>
+        <v>626</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>